--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alan_\Desktop\DataPath\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alan_\Desktop\Fase1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA500A9-DF46-4EB8-9474-808871598B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210C5DCA-42D5-4756-991B-BF1AA5CF092D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{9A29B29E-781E-4366-9578-AE8ECF56AC93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9A29B29E-781E-4366-9578-AE8ECF56AC93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,15 +471,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D237BAF8-8782-4E60-BB1C-82461FCA1DC5}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -510,133 +510,13 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
         <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -649,13 +529,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E073AC1C-6E36-4311-B7B3-63AD6BB9BDF5}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>32</v>
       </c>
@@ -663,7 +543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>34</v>
       </c>
@@ -671,7 +551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>42</v>
       </c>
@@ -679,7 +559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>36</v>
       </c>
@@ -687,7 +567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>37</v>
       </c>
@@ -695,7 +575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>38</v>
       </c>
@@ -703,7 +583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>39</v>
       </c>
